--- a/actual_funcs/replace_names_patterns.xlsx
+++ b/actual_funcs/replace_names_patterns.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="optional" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>Find</t>
   </si>
@@ -40,9 +41,6 @@
     <t>change_\1</t>
   </si>
   <si>
-    <t>^.*(контракт|договор)(а|ов)? на (поставку|закупку|приобретение|оказание услуг|услугиIВыполнение работ)</t>
-  </si>
-  <si>
     <t>change_\3</t>
   </si>
   <si>
@@ -52,9 +50,6 @@
     <t xml:space="preserve">^.*на определение поставщика товара </t>
   </si>
   <si>
-    <t>(^(.*(аукцион|запрос|отбор|конкурс).*|.*определени[ею] поставщика (на|для|товара)|^на)? |^)(поставк[уи]|закупку|приобретение|оказание услуг|услуги|Выполнение работ|обеспечение)</t>
-  </si>
-  <si>
     <t>change_\5</t>
   </si>
   <si>
@@ -110,13 +105,28 @@
   </si>
   <si>
     <t xml:space="preserve">^.*на право.*(договора|контракта) на </t>
+  </si>
+  <si>
+    <t>^[^A-zА-я]+</t>
+  </si>
+  <si>
+    <t>^.*(контракт|договор)(а|ов)? на (поставку|закупку|приобретение|оказание услуг|услугиIвыполнение)</t>
+  </si>
+  <si>
+    <t>(^(.*(аукцион|запрос|отбор|конкурс).*|.*определени[ею] поставщика (на|для|товара)|^на)? |^)(поставк[уи]|закупку|приобретение|оказание услуг|услуги|выполнение|обеспечение)</t>
+  </si>
+  <si>
+    <t>^([^A-zА-я]*[A-zА-я]{,3}[^A-zА-я]+)+((поставка|закупка|приобретение|оказание услуг|услуги|выполнение работ|ремонт|текущий ремонт|ниокр|смр|строительство)[.]*)</t>
+  </si>
+  <si>
+    <t>^[\d\s]*(?![яей])\b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +143,22 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF008080"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -155,9 +181,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -452,13 +481,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="14.7265625" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -496,109 +529,157 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
-      </c>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="10.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/actual_funcs/replace_names_patterns.xlsx
+++ b/actual_funcs/replace_names_patterns.xlsx
@@ -26,9 +26,6 @@
     <t>\(с результатом\)</t>
   </si>
   <si>
-    <t>"|«|»|\'</t>
-  </si>
-  <si>
     <t>[\s]+</t>
   </si>
   <si>
@@ -120,6 +117,9 @@
   </si>
   <si>
     <t>^[\d\s]*(?![яей])\b</t>
+  </si>
+  <si>
+    <t>"|«|»|\'&gt;</t>
   </si>
 </sst>
 </file>
@@ -483,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -508,126 +508,126 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
         <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
         <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
         <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
         <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
         <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
         <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
         <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
         <v>27</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -665,17 +665,17 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
